--- a/data/trans_orig/P1802-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1802-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A936F026-F30B-4287-8125-BA611920C540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA1C37B-5268-4C81-A6E1-F0A8FC9E936D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F73AC08-8BBB-4535-90F9-609F7A7EB8C6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6FF1597-962F-4643-8C9F-1D641C8041C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>12,81%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>87,19%</t>
   </si>
   <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
   <si>
     <t>86,03%</t>
   </si>
   <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,49 +138,43 @@
     <t>12,6%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
+    <t>15,77%</t>
   </si>
   <si>
     <t>17,73%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
+    <t>84,23%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -189,55 +183,55 @@
     <t>16,17%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>20,59%</t>
   </si>
   <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>18,4%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
   </si>
   <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>79,41%</t>
   </si>
   <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
   </si>
   <si>
     <t>81,6%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -246,55 +240,55 @@
     <t>13,91%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
   </si>
   <si>
     <t>86,09%</t>
   </si>
   <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>83,47%</t>
   </si>
   <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -306,94 +300,100 @@
     <t>11,91%</t>
   </si>
   <si>
-    <t>16,7%</t>
-  </si>
-  <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>15,75%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>14,64%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
   </si>
   <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>83,3%</t>
-  </si>
-  <si>
     <t>88,09%</t>
   </si>
   <si>
     <t>81,94%</t>
   </si>
   <si>
-    <t>84,25%</t>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>85,36%</t>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>18,88%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>81,12%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>83,33%</t>
   </si>
   <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -405,307 +405,295 @@
     <t>11,9%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
+    <t>10,8%</t>
   </si>
   <si>
     <t>13,77%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>10,46%</t>
   </si>
   <si>
     <t>88,1%</t>
   </si>
   <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
+    <t>89,2%</t>
   </si>
   <si>
     <t>86,23%</t>
   </si>
   <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>89,54%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>15,82%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>82,93%</t>
   </si>
   <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
   </si>
   <si>
     <t>84,18%</t>
   </si>
   <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
   </si>
   <si>
     <t>15,55%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>86,19%</t>
   </si>
   <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>23,18%</t>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>22,35%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
   </si>
   <si>
     <t>21,46%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>23,14%</t>
   </si>
   <si>
     <t>79,59%</t>
   </si>
   <si>
-    <t>76,82%</t>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
   </si>
   <si>
     <t>77,65%</t>
   </si>
   <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
   </si>
   <si>
     <t>78,54%</t>
   </si>
   <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>76,86%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>14,94%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>18,79%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
   </si>
   <si>
     <t>17,26%</t>
   </si>
   <si>
-    <t>19,12%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>83,11%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
+    <t>85,06%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>81,21%</t>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>80,88%</t>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937E07C6-1BE1-4845-9538-7168FFAD27B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962F78D6-7BA1-4453-9C95-AA7C36887338}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1399,10 +1387,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>96</v>
@@ -1411,13 +1399,13 @@
         <v>99185</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>165</v>
@@ -1429,10 +1417,10 @@
         <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,13 +1435,13 @@
         <v>487905</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>455</v>
@@ -1462,13 +1450,13 @@
         <v>460294</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>925</v>
@@ -1480,10 +1468,10 @@
         <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,7 +1527,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1551,13 +1539,13 @@
         <v>165284</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>199</v>
@@ -1566,13 +1554,13 @@
         <v>214744</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>350</v>
@@ -1581,13 +1569,13 @@
         <v>380028</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,13 +1590,13 @@
         <v>857147</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>778</v>
@@ -1617,13 +1605,13 @@
         <v>828169</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>1578</v>
@@ -1632,13 +1620,13 @@
         <v>1685316</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,7 +1682,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1706,13 +1694,13 @@
         <v>105669</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -1721,13 +1709,13 @@
         <v>149604</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>237</v>
@@ -1736,13 +1724,13 @@
         <v>255273</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1745,13 @@
         <v>653883</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>598</v>
@@ -1772,13 +1760,13 @@
         <v>635407</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1195</v>
@@ -1787,13 +1775,13 @@
         <v>1289290</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,7 +1837,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1861,13 +1849,13 @@
         <v>131376</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="H16" s="7">
         <v>167</v>
@@ -1876,13 +1864,13 @@
         <v>188531</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>294</v>
@@ -1891,13 +1879,13 @@
         <v>319906</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1900,13 @@
         <v>806191</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>792</v>
@@ -1927,13 +1915,13 @@
         <v>855248</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>1597</v>
@@ -1942,10 +1930,10 @@
         <v>1661440</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>100</v>
@@ -2180,7 +2168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A890511-8D33-4C93-AAAB-3F449F9E0E4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC742D4-F047-484B-8C58-CD03633FECC6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2325,7 +2313,7 @@
         <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -2334,13 +2322,13 @@
         <v>32036</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2343,13 @@
         <v>89847</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>207</v>
@@ -2370,13 +2358,13 @@
         <v>110832</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>308</v>
@@ -2385,13 +2373,13 @@
         <v>200679</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2447,13 @@
         <v>79645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>182</v>
@@ -2474,13 +2462,13 @@
         <v>101190</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>279</v>
@@ -2489,13 +2477,13 @@
         <v>180835</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2498,13 @@
         <v>470178</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>814</v>
@@ -2525,13 +2513,13 @@
         <v>491772</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>1329</v>
@@ -2540,13 +2528,13 @@
         <v>961950</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,7 +2590,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2614,13 +2602,13 @@
         <v>180143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>245</v>
@@ -2629,13 +2617,13 @@
         <v>146263</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>379</v>
@@ -2644,13 +2632,13 @@
         <v>326406</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2653,13 @@
         <v>859105</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7">
         <v>1271</v>
@@ -2680,13 +2668,13 @@
         <v>913211</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>2101</v>
@@ -2695,13 +2683,13 @@
         <v>1772316</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,7 +2745,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2769,13 +2757,13 @@
         <v>102700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>229</v>
@@ -2784,13 +2772,13 @@
         <v>144828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>333</v>
@@ -2799,13 +2787,13 @@
         <v>247528</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2808,13 @@
         <v>625254</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>814</v>
@@ -2835,13 +2823,13 @@
         <v>726716</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>1385</v>
@@ -2850,13 +2838,13 @@
         <v>1351969</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,7 +2900,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2924,13 +2912,13 @@
         <v>196871</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>388</v>
@@ -2939,13 +2927,13 @@
         <v>256955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>598</v>
@@ -2954,13 +2942,13 @@
         <v>453826</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2963,13 @@
         <v>767768</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>1173</v>
@@ -2990,13 +2978,13 @@
         <v>892751</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>1968</v>
@@ -3005,13 +2993,13 @@
         <v>1660520</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3067,13 @@
         <v>571495</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>1080</v>
@@ -3094,13 +3082,13 @@
         <v>669136</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>1642</v>
@@ -3109,13 +3097,13 @@
         <v>1240631</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3118,13 @@
         <v>2812151</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>4279</v>
@@ -3145,13 +3133,13 @@
         <v>3135283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>7091</v>
@@ -3160,13 +3148,13 @@
         <v>5947434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1802-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1802-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA1C37B-5268-4C81-A6E1-F0A8FC9E936D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6958276-5249-4BDD-B2F4-3768D9A3D000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6FF1597-962F-4643-8C9F-1D641C8041C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB03DC2A-3CB7-4DFC-BCF3-788E976EB52D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="221">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -75,604 +75,610 @@
     <t>12,81%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>9,4%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>23,02%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
   </si>
   <si>
     <t>76,98%</t>
   </si>
   <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
   </si>
   <si>
     <t>21,53%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>78,47%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
   </si>
   <si>
     <t>85,06%</t>
@@ -1105,7 +1111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962F78D6-7BA1-4453-9C95-AA7C36887338}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F27A7D-9DCB-45A5-AFBF-B9FD6F8964F1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1694,13 +1700,13 @@
         <v>105669</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -1709,13 +1715,13 @@
         <v>149604</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>237</v>
@@ -1724,13 +1730,13 @@
         <v>255273</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,13 +1751,13 @@
         <v>653883</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>598</v>
@@ -1760,13 +1766,13 @@
         <v>635407</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1195</v>
@@ -1775,13 +1781,13 @@
         <v>1289290</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,7 +1843,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1849,13 +1855,13 @@
         <v>131376</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H16" s="7">
         <v>167</v>
@@ -1864,13 +1870,13 @@
         <v>188531</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>294</v>
@@ -1879,13 +1885,13 @@
         <v>319906</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,10 +1906,10 @@
         <v>806191</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>94</v>
@@ -2168,7 +2174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC742D4-F047-484B-8C58-CD03633FECC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59D1EC8-D721-4D4C-A026-5DF813D3BFC6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2298,7 +2304,7 @@
         <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -2307,13 +2313,13 @@
         <v>19901</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -2346,10 +2352,10 @@
         <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>207</v>
@@ -2358,10 +2364,10 @@
         <v>110832</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>132</v>
@@ -2772,13 +2778,13 @@
         <v>144828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>333</v>
@@ -2787,13 +2793,13 @@
         <v>247528</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2814,13 @@
         <v>625254</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>814</v>
@@ -2823,13 +2829,13 @@
         <v>726716</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1385</v>
@@ -2838,13 +2844,13 @@
         <v>1351969</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,7 +2906,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2912,13 +2918,13 @@
         <v>196871</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>388</v>
@@ -2927,13 +2933,13 @@
         <v>256955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>598</v>
@@ -2942,13 +2948,13 @@
         <v>453826</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>140</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2969,13 @@
         <v>767768</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>1173</v>
@@ -2978,7 +2984,7 @@
         <v>892751</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>199</v>
@@ -3073,7 +3079,7 @@
         <v>204</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="H19" s="7">
         <v>1080</v>
@@ -3082,13 +3088,13 @@
         <v>669136</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M19" s="7">
         <v>1642</v>
@@ -3097,13 +3103,13 @@
         <v>1240631</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3124,13 @@
         <v>2812151</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>4279</v>
@@ -3133,13 +3139,13 @@
         <v>3135283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>7091</v>
@@ -3148,13 +3154,13 @@
         <v>5947434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1802-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1802-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE75925F-AB70-4BFA-8F42-F5A72AB2E2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{023915A3-1EC9-4BDB-B42F-C29A8663CCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF72154B-B344-4997-AA89-6E6BF5E8E3B5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3303EC3F-64E8-486C-9906-4820F8BA1571}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="229">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>991.0</t>
@@ -77,16 +77,13 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>99,86%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -98,39 +95,15 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -146,27 +119,15 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
@@ -200,28 +161,10 @@
     <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -239,619 +182,490 @@
     <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
   </si>
   <si>
     <t>24,61%</t>
   </si>
   <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>75,39%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -860,46 +674,58 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
 </sst>
 </file>
@@ -1311,8 +1137,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6703E329-AE4D-4BDE-887E-6B30E2C16AF8}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867B694C-0D78-4838-9538-43877A0D511F}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1429,10 +1255,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D4" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1444,31 +1270,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I4" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N4" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1477,7 +1303,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1486,49 +1312,49 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1537,43 +1363,43 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,10 +1408,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D7" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1597,10 +1423,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1612,10 +1438,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N7" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1629,52 +1455,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D8" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I8" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N8" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -1683,7 +1509,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1692,13 +1518,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1707,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1722,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1743,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1758,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1773,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,10 +1614,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D11" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1803,10 +1629,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I11" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1818,10 +1644,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N11" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1835,52 +1661,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -1889,7 +1715,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1898,29 +1724,29 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
@@ -1928,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1949,29 +1775,29 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
@@ -1979,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2009,10 +1835,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2024,10 +1850,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2041,52 +1867,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D16" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I16" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N16" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2095,7 +1921,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2104,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2119,13 +1945,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2134,19 +1960,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2155,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2170,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2185,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,10 +2026,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D19" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -2215,10 +2041,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -2230,10 +2056,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N19" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -2247,52 +2073,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I20" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -2301,7 +2127,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2310,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2325,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2340,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2361,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2376,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2391,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,10 +2232,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -2421,10 +2247,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -2436,10 +2262,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -2452,222 +2278,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2680,8 +2299,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C9A6DB-26B4-43FD-BD09-A417FFFD7653}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF62184-6E24-4E60-8FF9-8CEA3553A5B1}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2697,7 +2316,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2798,46 +2417,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D4" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I4" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N4" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2846,7 +2465,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2855,14 +2474,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
@@ -2870,13 +2489,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2885,19 +2504,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2906,14 +2525,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
@@ -2921,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2936,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D7" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -2966,10 +2585,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -2981,10 +2600,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N7" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -2998,52 +2617,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D8" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I8" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N8" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -3052,7 +2671,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -3061,13 +2680,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3076,13 +2695,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3091,19 +2710,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -3112,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3127,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3142,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,10 +2776,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D11" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -3172,10 +2791,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I11" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -3187,10 +2806,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N11" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -3204,52 +2823,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -3258,7 +2877,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -3267,14 +2886,14 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -3282,13 +2901,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3297,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3318,14 +2937,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
@@ -3333,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3348,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,10 +2982,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3378,10 +2997,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I15" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3393,10 +3012,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N15" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3410,52 +3029,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D16" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I16" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N16" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3464,7 +3083,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3473,13 +3092,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3488,13 +3107,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3503,19 +3122,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -3524,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3539,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3554,13 +3173,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,10 +3188,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D19" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -3584,10 +3203,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I19" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -3599,10 +3218,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N19" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -3616,52 +3235,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D20" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I20" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N20" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -3670,7 +3289,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -3679,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3694,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3709,19 +3328,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -3730,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3745,13 +3364,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3760,13 +3379,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,10 +3394,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D23" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -3790,10 +3409,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I23" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -3805,10 +3424,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N23" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -3821,222 +3440,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4049,8 +3461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF23B500-272D-4CB8-93E5-FED851C09022}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8111C76B-25D4-47AD-887C-FD0127C16E3E}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4066,7 +3478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4173,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4188,13 +3600,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4203,115 +3615,115 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D5" s="7">
-        <v>14929</v>
+        <v>85277</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="I5" s="7">
-        <v>17198</v>
+        <v>116382</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="M5" s="7">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="N5" s="7">
-        <v>32126</v>
+        <v>201660</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>99</v>
+        <v>569</v>
       </c>
       <c r="D6" s="7">
-        <v>101617</v>
+        <v>589523</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H6" s="7">
-        <v>98</v>
+        <v>553</v>
       </c>
       <c r="I6" s="7">
-        <v>96162</v>
+        <v>556457</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="M6" s="7">
-        <v>197</v>
+        <v>1122</v>
       </c>
       <c r="N6" s="7">
-        <v>197780</v>
+        <v>1145979</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,10 +3732,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -4335,10 +3747,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -4350,10 +3762,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -4367,7 +3779,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4379,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4394,13 +3806,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4409,115 +3821,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
+        <v>151</v>
+      </c>
+      <c r="D9" s="7">
+        <v>165284</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="7">
+        <v>199</v>
+      </c>
+      <c r="I9" s="7">
+        <v>214744</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="7">
-        <v>70349</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="7">
-        <v>96</v>
-      </c>
-      <c r="I9" s="7">
-        <v>99185</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="M9" s="7">
-        <v>165</v>
+        <v>350</v>
       </c>
       <c r="N9" s="7">
-        <v>169533</v>
+        <v>380028</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>470</v>
+        <v>800</v>
       </c>
       <c r="D10" s="7">
-        <v>487905</v>
+        <v>857147</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
-        <v>455</v>
+        <v>778</v>
       </c>
       <c r="I10" s="7">
-        <v>460294</v>
+        <v>828169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="M10" s="7">
-        <v>925</v>
+        <v>1578</v>
       </c>
       <c r="N10" s="7">
-        <v>948200</v>
+        <v>1685316</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,10 +3938,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D11" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -4541,10 +3953,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I11" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -4556,10 +3968,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N11" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -4573,7 +3985,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4585,14 +3997,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -4600,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4615,115 +4027,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="D13" s="7">
-        <v>165284</v>
+        <v>105669</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="I13" s="7">
-        <v>214744</v>
+        <v>149604</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="N13" s="7">
-        <v>380028</v>
+        <v>255273</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>800</v>
+        <v>597</v>
       </c>
       <c r="D14" s="7">
-        <v>857147</v>
+        <v>653883</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
-        <v>778</v>
+        <v>598</v>
       </c>
       <c r="I14" s="7">
-        <v>828169</v>
+        <v>635407</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
-        <v>1578</v>
+        <v>1195</v>
       </c>
       <c r="N14" s="7">
-        <v>1685316</v>
+        <v>1289290</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,10 +4144,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D15" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4747,10 +4159,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I15" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4762,10 +4174,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N15" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4779,7 +4191,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4791,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4806,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4821,115 +4233,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D17" s="7">
-        <v>105669</v>
+        <v>131376</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="I17" s="7">
-        <v>149604</v>
+        <v>188531</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
-        <v>237</v>
+        <v>294</v>
       </c>
       <c r="N17" s="7">
-        <v>255273</v>
+        <v>319906</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
-        <v>597</v>
+        <v>805</v>
       </c>
       <c r="D18" s="7">
-        <v>653883</v>
+        <v>806191</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
-        <v>598</v>
+        <v>792</v>
       </c>
       <c r="I18" s="7">
-        <v>635407</v>
+        <v>855248</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
-        <v>1195</v>
+        <v>1597</v>
       </c>
       <c r="N18" s="7">
-        <v>1289290</v>
+        <v>1661440</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,10 +4350,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D19" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4953,10 +4365,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I19" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4968,10 +4380,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N19" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -4985,7 +4397,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4997,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5012,13 +4424,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5027,115 +4439,115 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>127</v>
+        <v>460</v>
       </c>
       <c r="D21" s="7">
-        <v>131376</v>
+        <v>487606</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="H21" s="7">
-        <v>167</v>
+        <v>617</v>
       </c>
       <c r="I21" s="7">
-        <v>188531</v>
+        <v>669261</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="M21" s="7">
-        <v>294</v>
+        <v>1077</v>
       </c>
       <c r="N21" s="7">
-        <v>319906</v>
+        <v>1156867</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
-        <v>805</v>
+        <v>2771</v>
       </c>
       <c r="D22" s="7">
-        <v>806191</v>
+        <v>2906744</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>792</v>
+        <v>2721</v>
       </c>
       <c r="I22" s="7">
-        <v>855248</v>
+        <v>2875281</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1597</v>
+        <v>5492</v>
       </c>
       <c r="N22" s="7">
-        <v>1661440</v>
+        <v>5782025</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,10 +4556,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D23" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -5159,10 +4571,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I23" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -5174,10 +4586,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N23" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -5190,222 +4602,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>460</v>
-      </c>
-      <c r="D25" s="7">
-        <v>487606</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="7">
-        <v>617</v>
-      </c>
-      <c r="I25" s="7">
-        <v>669261</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1077</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1156867</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2771</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2906744</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2721</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2875281</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M26" s="7">
-        <v>5492</v>
-      </c>
-      <c r="N26" s="7">
-        <v>5782025</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5418,8 +4623,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399DB3E3-A8FE-4583-94A4-9A2F7692F47F}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6467D6B-C7C8-4BC2-964A-AC01FA2B0E1E}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5435,7 +4640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5542,13 +4747,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5557,13 +4762,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5572,115 +4777,115 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="D5" s="7">
-        <v>12135</v>
+        <v>90139</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>19901</v>
+        <v>115066</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>332</v>
       </c>
       <c r="N5" s="7">
-        <v>32036</v>
+        <v>205205</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>101</v>
+        <v>616</v>
       </c>
       <c r="D6" s="7">
-        <v>89847</v>
+        <v>545302</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="H6" s="7">
-        <v>207</v>
+        <v>1021</v>
       </c>
       <c r="I6" s="7">
-        <v>110832</v>
+        <v>560686</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="M6" s="7">
-        <v>308</v>
+        <v>1637</v>
       </c>
       <c r="N6" s="7">
-        <v>200679</v>
+        <v>1105989</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,10 +4894,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -5704,10 +4909,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -5719,10 +4924,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N7" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -5736,7 +4941,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5748,13 +4953,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5763,13 +4968,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5778,115 +4983,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D9" s="7">
-        <v>79645</v>
+        <v>372269</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="H9" s="7">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="I9" s="7">
-        <v>101190</v>
+        <v>137267</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="M9" s="7">
-        <v>279</v>
+        <v>379</v>
       </c>
       <c r="N9" s="7">
-        <v>180835</v>
+        <v>509536</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>515</v>
+        <v>830</v>
       </c>
       <c r="D10" s="7">
-        <v>470178</v>
+        <v>820595</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
-        <v>814</v>
+        <v>1271</v>
       </c>
       <c r="I10" s="7">
-        <v>491772</v>
+        <v>820839</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
-        <v>1329</v>
+        <v>2101</v>
       </c>
       <c r="N10" s="7">
-        <v>961950</v>
+        <v>1641435</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,10 +5100,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D11" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -5910,10 +5115,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I11" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -5925,10 +5130,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N11" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -5942,7 +5147,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5954,14 +5159,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -5969,13 +5174,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5984,115 +5189,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>217</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="D13" s="7">
-        <v>180143</v>
+        <v>100513</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I13" s="7">
-        <v>146263</v>
+        <v>135352</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="N13" s="7">
-        <v>326406</v>
+        <v>235865</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>830</v>
+        <v>571</v>
       </c>
       <c r="D14" s="7">
-        <v>859105</v>
+        <v>603420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
-        <v>1271</v>
+        <v>814</v>
       </c>
       <c r="I14" s="7">
-        <v>913211</v>
+        <v>795491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
-        <v>2101</v>
+        <v>1385</v>
       </c>
       <c r="N14" s="7">
-        <v>1772316</v>
+        <v>1398912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,10 +5306,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D15" s="7">
-        <v>1039248</v>
+        <v>703933</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -6116,10 +5321,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>1516</v>
+        <v>1043</v>
       </c>
       <c r="I15" s="7">
-        <v>1059474</v>
+        <v>930843</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -6131,10 +5336,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>2480</v>
+        <v>1718</v>
       </c>
       <c r="N15" s="7">
-        <v>2098722</v>
+        <v>1634777</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -6148,7 +5353,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6160,13 +5365,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6175,13 +5380,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6190,115 +5395,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="D17" s="7">
-        <v>102700</v>
+        <v>193491</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7">
-        <v>229</v>
+        <v>388</v>
       </c>
       <c r="I17" s="7">
-        <v>144828</v>
+        <v>241085</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="M17" s="7">
-        <v>333</v>
+        <v>598</v>
       </c>
       <c r="N17" s="7">
-        <v>247528</v>
+        <v>434576</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
-        <v>571</v>
+        <v>795</v>
       </c>
       <c r="D18" s="7">
-        <v>625254</v>
+        <v>732627</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="H18" s="7">
-        <v>814</v>
+        <v>1173</v>
       </c>
       <c r="I18" s="7">
-        <v>726716</v>
+        <v>853169</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="M18" s="7">
-        <v>1385</v>
+        <v>1968</v>
       </c>
       <c r="N18" s="7">
-        <v>1351969</v>
+        <v>1585796</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,10 +5512,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>675</v>
+        <v>1005</v>
       </c>
       <c r="D19" s="7">
-        <v>727954</v>
+        <v>926118</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -6322,10 +5527,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>1043</v>
+        <v>1561</v>
       </c>
       <c r="I19" s="7">
-        <v>871544</v>
+        <v>1094254</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -6337,10 +5542,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1718</v>
+        <v>2566</v>
       </c>
       <c r="N19" s="7">
-        <v>1599497</v>
+        <v>2020372</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -6354,7 +5559,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6366,13 +5571,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6381,13 +5586,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6396,115 +5601,115 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>210</v>
+        <v>562</v>
       </c>
       <c r="D21" s="7">
-        <v>196871</v>
+        <v>756412</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="H21" s="7">
-        <v>388</v>
+        <v>1080</v>
       </c>
       <c r="I21" s="7">
-        <v>256955</v>
+        <v>628769</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="M21" s="7">
-        <v>598</v>
+        <v>1642</v>
       </c>
       <c r="N21" s="7">
-        <v>453826</v>
+        <v>1385181</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
-        <v>795</v>
+        <v>2812</v>
       </c>
       <c r="D22" s="7">
-        <v>767768</v>
+        <v>2701945</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="H22" s="7">
-        <v>1173</v>
+        <v>4279</v>
       </c>
       <c r="I22" s="7">
-        <v>892751</v>
+        <v>3030187</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="M22" s="7">
-        <v>1968</v>
+        <v>7091</v>
       </c>
       <c r="N22" s="7">
-        <v>1660520</v>
+        <v>5732132</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,10 +5718,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1005</v>
+        <v>3374</v>
       </c>
       <c r="D23" s="7">
-        <v>964639</v>
+        <v>3458357</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -6528,10 +5733,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>1561</v>
+        <v>5359</v>
       </c>
       <c r="I23" s="7">
-        <v>1149706</v>
+        <v>3658956</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -6543,10 +5748,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>2566</v>
+        <v>8733</v>
       </c>
       <c r="N23" s="7">
-        <v>2114346</v>
+        <v>7117313</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -6559,222 +5764,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>562</v>
-      </c>
-      <c r="D25" s="7">
-        <v>571495</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1080</v>
-      </c>
-      <c r="I25" s="7">
-        <v>669136</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1642</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1240631</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2812</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2812151</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H26" s="7">
-        <v>4279</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3135283</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M26" s="7">
-        <v>7091</v>
-      </c>
-      <c r="N26" s="7">
-        <v>5947434</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3383646</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5359</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3804419</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8733</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7188065</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
